--- a/src/output/test1.xlsx
+++ b/src/output/test1.xlsx
@@ -468,7 +468,7 @@
         <v>了业</v>
       </c>
       <c r="B12" t="str">
-        <v>了业 Ye Le</v>
+        <v>了业 Ye Liao</v>
       </c>
     </row>
     <row r="13">
@@ -726,7 +726,7 @@
         <v>露露</v>
       </c>
       <c r="B48" t="str">
-        <v>露露 Lou Lou</v>
+        <v>露露 Lu Lu</v>
       </c>
     </row>
     <row r="49">
@@ -742,7 +742,7 @@
         <v>曾淑云 zeng shuyun</v>
       </c>
       <c r="B50" t="str">
-        <v>曾淑云 Shuyun Zeng</v>
+        <v>曾淑云 Shuyun Ceng</v>
       </c>
     </row>
     <row r="51">
@@ -787,7 +787,7 @@
         <v>葉偉俊yip wai chun</v>
       </c>
       <c r="B56" t="str">
-        <v>葉偉俊 Weijun Ye</v>
+        <v>葉偉俊 Weijun Xie</v>
       </c>
     </row>
     <row r="57">
@@ -803,7 +803,7 @@
         <v>曾淑燕</v>
       </c>
       <c r="B58" t="str">
-        <v>曾淑燕 Shuyan Zeng</v>
+        <v>曾淑燕 Shuyan Ceng</v>
       </c>
     </row>
     <row r="59">
@@ -882,7 +882,7 @@
         <v>褚芯榆chuxinyu</v>
       </c>
       <c r="B69" t="str">
-        <v>褚芯榆 Xinyu Zhu</v>
+        <v>褚芯榆 Xinyu Chu</v>
       </c>
     </row>
     <row r="70">
@@ -948,7 +948,7 @@
         <v>朴银实   piao yin shi</v>
       </c>
       <c r="B78" t="str">
-        <v>朴银实 Yinshi Pu</v>
+        <v>朴银实 Yinshi Po</v>
       </c>
     </row>
     <row r="79">
@@ -1888,7 +1888,7 @@
         <v>朴银实   piao yin shi</v>
       </c>
       <c r="B203" t="str">
-        <v>朴银实 Yinshi Pu</v>
+        <v>朴银实 Yinshi Po</v>
       </c>
     </row>
     <row r="204">
@@ -1930,7 +1930,7 @@
         <v>王乾</v>
       </c>
       <c r="B209" t="str">
-        <v>王乾 Qian Wang</v>
+        <v>王乾 Gan Wang</v>
       </c>
     </row>
     <row r="210">
@@ -1938,7 +1938,7 @@
         <v>卓娜 孙丽萍</v>
       </c>
       <c r="B210" t="str">
-        <v>卓娜 Na Zhuo</v>
+        <v>卓娜 Nuo Zhuo</v>
       </c>
     </row>
     <row r="211">
@@ -1970,7 +1970,7 @@
         <v>盈姿葉Ying zu ye</v>
       </c>
       <c r="B214" t="str">
-        <v>盈姿葉 Ziye Ying</v>
+        <v>盈姿葉 Zixie Ying</v>
       </c>
     </row>
     <row r="215">
